--- a/data/incoming_scrap_records.xlsx
+++ b/data/incoming_scrap_records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +675,37 @@
         <v>495</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02/09/2025 18:59:22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>นายสมดี</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>นายคิว</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>สแตนเลส (แท้)</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
